--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-204.5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>201</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-502.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>209</v>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-750.9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>201</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4069</t>
+          <t>5528</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-751</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,607 +425,1084 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B2" t="n">
+        <v>231</v>
+      </c>
+      <c r="C2" t="n">
+        <v>270</v>
+      </c>
+      <c r="D2" t="n">
+        <v>304</v>
+      </c>
+      <c r="E2" t="n">
+        <v>356</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-82</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-35.4978354978355</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-121</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-44.81481481481481</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-155</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-50.98684210526315</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-207</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-58.14606741573034</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="R2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>229</v>
+      </c>
+      <c r="B3" t="n">
+        <v>203</v>
+      </c>
+      <c r="C3" t="n">
+        <v>242</v>
+      </c>
+      <c r="D3" t="n">
+        <v>279</v>
+      </c>
+      <c r="E3" t="n">
+        <v>338</v>
+      </c>
+      <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.80788177339902</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-5.371900826446281</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-50</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-17.92114695340502</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-109</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-32.24852071005917</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>205.5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>231</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>90</v>
+      </c>
+      <c r="B4" t="n">
+        <v>190</v>
+      </c>
+      <c r="C4" t="n">
+        <v>228</v>
+      </c>
+      <c r="D4" t="n">
+        <v>266</v>
+      </c>
+      <c r="E4" t="n">
+        <v>326</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-52.63157894736842</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-138</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-60.52631578947368</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-176</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-66.16541353383458</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-236</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-72.39263803680981</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>191</v>
+      </c>
+      <c r="C5" t="n">
+        <v>229</v>
+      </c>
+      <c r="D5" t="n">
         <v>270</v>
       </c>
-      <c r="F2" t="n">
-        <v>304</v>
-      </c>
-      <c r="G2" t="n">
-        <v>356</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="E5" t="n">
+        <v>333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-191</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-229</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-270</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-333</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+      <c r="C6" t="n">
+        <v>242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>286</v>
+      </c>
+      <c r="E6" t="n">
+        <v>357</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-200</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-242</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-286</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-357</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>203</v>
-      </c>
-      <c r="E3" t="n">
-        <v>242</v>
-      </c>
-      <c r="F3" t="n">
-        <v>279</v>
-      </c>
-      <c r="G3" t="n">
-        <v>338</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>355</v>
+      </c>
+      <c r="B7" t="n">
+        <v>206</v>
+      </c>
+      <c r="C7" t="n">
+        <v>249</v>
+      </c>
+      <c r="D7" t="n">
+        <v>296</v>
+      </c>
+      <c r="E7" t="n">
+        <v>369</v>
+      </c>
+      <c r="F7" t="n">
+        <v>149</v>
+      </c>
+      <c r="G7" t="n">
+        <v>72.33009708737865</v>
+      </c>
+      <c r="H7" t="n">
+        <v>106</v>
+      </c>
+      <c r="I7" t="n">
+        <v>42.570281124498</v>
+      </c>
+      <c r="J7" t="n">
+        <v>59</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19.93243243243243</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-14</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-3.794037940379404</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>155</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190</v>
-      </c>
-      <c r="E4" t="n">
-        <v>228</v>
-      </c>
-      <c r="F4" t="n">
-        <v>266</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>416</v>
+      </c>
+      <c r="B8" t="n">
+        <v>214</v>
+      </c>
+      <c r="C8" t="n">
+        <v>262</v>
+      </c>
+      <c r="D8" t="n">
         <v>326</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="E8" t="n">
+        <v>431</v>
+      </c>
+      <c r="F8" t="n">
+        <v>202</v>
+      </c>
+      <c r="G8" t="n">
+        <v>94.39252336448598</v>
+      </c>
+      <c r="H8" t="n">
+        <v>154</v>
+      </c>
+      <c r="I8" t="n">
+        <v>58.77862595419847</v>
+      </c>
+      <c r="J8" t="n">
+        <v>90</v>
+      </c>
+      <c r="K8" t="n">
+        <v>27.60736196319019</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-15</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-3.480278422273782</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>249</v>
+      </c>
+      <c r="D9" t="n">
+        <v>309</v>
+      </c>
+      <c r="E9" t="n">
+        <v>405</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-204</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-249</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-309</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-405</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>34.50000000000001</v>
-      </c>
-      <c r="D5" t="n">
-        <v>191</v>
-      </c>
-      <c r="E5" t="n">
-        <v>229</v>
-      </c>
-      <c r="F5" t="n">
-        <v>270</v>
-      </c>
-      <c r="G5" t="n">
-        <v>333</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>201</v>
+      </c>
+      <c r="C10" t="n">
+        <v>243</v>
+      </c>
+      <c r="D10" t="n">
+        <v>292</v>
+      </c>
+      <c r="E10" t="n">
+        <v>369</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-201</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-243</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-292</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-369</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>200</v>
-      </c>
-      <c r="E6" t="n">
-        <v>242</v>
-      </c>
-      <c r="F6" t="n">
-        <v>286</v>
-      </c>
-      <c r="G6" t="n">
-        <v>357</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>76</v>
+      </c>
+      <c r="B11" t="n">
+        <v>204</v>
+      </c>
+      <c r="C11" t="n">
+        <v>249</v>
+      </c>
+      <c r="D11" t="n">
+        <v>309</v>
+      </c>
+      <c r="E11" t="n">
+        <v>407</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-128</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-62.74509803921568</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-173</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-69.47791164658635</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-233</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-75.40453074433657</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-331</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-81.32678132678133</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>325</v>
-      </c>
-      <c r="D7" t="n">
-        <v>206</v>
-      </c>
-      <c r="E7" t="n">
-        <v>249</v>
-      </c>
-      <c r="F7" t="n">
-        <v>296</v>
-      </c>
-      <c r="G7" t="n">
-        <v>369</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B12" t="n">
+        <v>201</v>
+      </c>
+      <c r="C12" t="n">
+        <v>246</v>
+      </c>
+      <c r="D12" t="n">
+        <v>307</v>
+      </c>
+      <c r="E12" t="n">
+        <v>408</v>
+      </c>
+      <c r="F12" t="n">
+        <v>844</v>
+      </c>
+      <c r="G12" t="n">
+        <v>419.9004975124378</v>
+      </c>
+      <c r="H12" t="n">
+        <v>799</v>
+      </c>
+      <c r="I12" t="n">
+        <v>324.7967479674797</v>
+      </c>
+      <c r="J12" t="n">
+        <v>738</v>
+      </c>
+      <c r="K12" t="n">
+        <v>240.3908794788274</v>
+      </c>
+      <c r="L12" t="n">
+        <v>637</v>
+      </c>
+      <c r="M12" t="n">
+        <v>156.1274509803922</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>372.9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>214</v>
-      </c>
-      <c r="E8" t="n">
-        <v>262</v>
-      </c>
-      <c r="F8" t="n">
-        <v>326</v>
-      </c>
-      <c r="G8" t="n">
-        <v>431</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>673</v>
+      </c>
+      <c r="B13" t="n">
+        <v>208</v>
+      </c>
+      <c r="C13" t="n">
+        <v>255</v>
+      </c>
+      <c r="D13" t="n">
+        <v>323</v>
+      </c>
+      <c r="E13" t="n">
+        <v>437</v>
+      </c>
+      <c r="F13" t="n">
+        <v>465</v>
+      </c>
+      <c r="G13" t="n">
+        <v>223.5576923076923</v>
+      </c>
+      <c r="H13" t="n">
+        <v>418</v>
+      </c>
+      <c r="I13" t="n">
+        <v>163.921568627451</v>
+      </c>
+      <c r="J13" t="n">
+        <v>350</v>
+      </c>
+      <c r="K13" t="n">
+        <v>108.359133126935</v>
+      </c>
+      <c r="L13" t="n">
+        <v>236</v>
+      </c>
+      <c r="M13" t="n">
+        <v>54.0045766590389</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>44.10000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>204</v>
-      </c>
-      <c r="E9" t="n">
-        <v>249</v>
-      </c>
-      <c r="F9" t="n">
-        <v>309</v>
-      </c>
-      <c r="G9" t="n">
-        <v>405</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>209</v>
+      </c>
+      <c r="C14" t="n">
+        <v>255</v>
+      </c>
+      <c r="D14" t="n">
+        <v>323</v>
+      </c>
+      <c r="E14" t="n">
+        <v>435</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-209</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-255</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-323</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-435</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="B15" t="n">
         <v>201</v>
       </c>
-      <c r="E10" t="n">
-        <v>243</v>
-      </c>
-      <c r="F10" t="n">
-        <v>292</v>
-      </c>
-      <c r="G10" t="n">
-        <v>369</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="C15" t="n">
+        <v>245</v>
+      </c>
+      <c r="D15" t="n">
+        <v>315</v>
+      </c>
+      <c r="E15" t="n">
+        <v>430</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-201</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-245</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-315</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-430</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>968</v>
+      </c>
+      <c r="B16" t="n">
+        <v>202</v>
+      </c>
+      <c r="C16" t="n">
+        <v>246</v>
+      </c>
+      <c r="D16" t="n">
+        <v>317</v>
+      </c>
+      <c r="E16" t="n">
+        <v>435</v>
+      </c>
+      <c r="F16" t="n">
+        <v>766</v>
+      </c>
+      <c r="G16" t="n">
+        <v>379.2079207920792</v>
+      </c>
+      <c r="H16" t="n">
+        <v>722</v>
+      </c>
+      <c r="I16" t="n">
+        <v>293.4959349593496</v>
+      </c>
+      <c r="J16" t="n">
+        <v>651</v>
+      </c>
+      <c r="K16" t="n">
+        <v>205.3627760252366</v>
+      </c>
+      <c r="L16" t="n">
+        <v>533</v>
+      </c>
+      <c r="M16" t="n">
+        <v>122.5287356321839</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>204</v>
-      </c>
-      <c r="E11" t="n">
-        <v>249</v>
-      </c>
-      <c r="F11" t="n">
-        <v>309</v>
-      </c>
-      <c r="G11" t="n">
-        <v>407</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2991</v>
+      </c>
+      <c r="B17" t="n">
+        <v>205</v>
+      </c>
+      <c r="C17" t="n">
+        <v>250</v>
+      </c>
+      <c r="D17" t="n">
+        <v>319</v>
+      </c>
+      <c r="E17" t="n">
+        <v>432</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2786</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1359.024390243902</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2741</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1096.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2672</v>
+      </c>
+      <c r="K17" t="n">
+        <v>837.6175548589341</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2559</v>
+      </c>
+      <c r="M17" t="n">
+        <v>592.3611111111111</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>B0DGVGRVLQ</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>743.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>201</v>
-      </c>
-      <c r="E12" t="n">
-        <v>246</v>
-      </c>
-      <c r="F12" t="n">
-        <v>307</v>
-      </c>
-      <c r="G12" t="n">
-        <v>408</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>526.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>208</v>
-      </c>
-      <c r="E13" t="n">
-        <v>255</v>
-      </c>
-      <c r="F13" t="n">
-        <v>323</v>
-      </c>
-      <c r="G13" t="n">
-        <v>437</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>209</v>
-      </c>
-      <c r="E14" t="n">
-        <v>255</v>
-      </c>
-      <c r="F14" t="n">
-        <v>323</v>
-      </c>
-      <c r="G14" t="n">
-        <v>435</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>201</v>
-      </c>
-      <c r="E15" t="n">
-        <v>245</v>
-      </c>
-      <c r="F15" t="n">
-        <v>315</v>
-      </c>
-      <c r="G15" t="n">
-        <v>430</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>700.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>202</v>
-      </c>
-      <c r="E16" t="n">
-        <v>246</v>
-      </c>
-      <c r="F16" t="n">
-        <v>317</v>
-      </c>
-      <c r="G16" t="n">
-        <v>435</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1915.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>205</v>
-      </c>
-      <c r="E17" t="n">
-        <v>250</v>
-      </c>
-      <c r="F17" t="n">
-        <v>319</v>
-      </c>
-      <c r="G17" t="n">
-        <v>432</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="R17" t="n">
         <v/>
       </c>
     </row>
@@ -1152,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5528</t>
+          <t>6992</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>1239</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>468</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>2991</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1701,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -516,7 +516,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B2" t="n">
         <v>231</v>
@@ -531,28 +531,28 @@
         <v>356</v>
       </c>
       <c r="F2" t="n">
-        <v>-82</v>
+        <v>-42</v>
       </c>
       <c r="G2" t="n">
-        <v>-35.4978354978355</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="H2" t="n">
-        <v>-121</v>
+        <v>-81</v>
       </c>
       <c r="I2" t="n">
-        <v>-44.81481481481481</v>
+        <v>-30</v>
       </c>
       <c r="J2" t="n">
-        <v>-155</v>
+        <v>-115</v>
       </c>
       <c r="K2" t="n">
-        <v>-50.98684210526315</v>
+        <v>-37.82894736842105</v>
       </c>
       <c r="L2" t="n">
-        <v>-207</v>
+        <v>-167</v>
       </c>
       <c r="M2" t="n">
-        <v>-58.14606741573034</v>
+        <v>-46.91011235955056</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="B4" t="n">
         <v>190</v>
@@ -655,28 +655,28 @@
         <v>326</v>
       </c>
       <c r="F4" t="n">
-        <v>-100</v>
+        <v>-30</v>
       </c>
       <c r="G4" t="n">
-        <v>-52.63157894736842</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="H4" t="n">
-        <v>-138</v>
+        <v>-68</v>
       </c>
       <c r="I4" t="n">
-        <v>-60.52631578947368</v>
+        <v>-29.82456140350877</v>
       </c>
       <c r="J4" t="n">
-        <v>-176</v>
+        <v>-106</v>
       </c>
       <c r="K4" t="n">
-        <v>-66.16541353383458</v>
+        <v>-39.84962406015038</v>
       </c>
       <c r="L4" t="n">
-        <v>-236</v>
+        <v>-166</v>
       </c>
       <c r="M4" t="n">
-        <v>-72.39263803680981</v>
+        <v>-50.920245398773</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B5" t="n">
         <v>191</v>
@@ -717,28 +717,28 @@
         <v>333</v>
       </c>
       <c r="F5" t="n">
-        <v>-191</v>
+        <v>-31</v>
       </c>
       <c r="G5" t="n">
-        <v>-100</v>
+        <v>-16.2303664921466</v>
       </c>
       <c r="H5" t="n">
-        <v>-229</v>
+        <v>-69</v>
       </c>
       <c r="I5" t="n">
-        <v>-100</v>
+        <v>-30.13100436681222</v>
       </c>
       <c r="J5" t="n">
-        <v>-270</v>
+        <v>-110</v>
       </c>
       <c r="K5" t="n">
-        <v>-100</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L5" t="n">
-        <v>-333</v>
+        <v>-173</v>
       </c>
       <c r="M5" t="n">
-        <v>-100</v>
+        <v>-51.95195195195195</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="B6" t="n">
         <v>200</v>
@@ -779,28 +779,28 @@
         <v>357</v>
       </c>
       <c r="F6" t="n">
-        <v>-200</v>
+        <v>-31</v>
       </c>
       <c r="G6" t="n">
-        <v>-100</v>
+        <v>-15.5</v>
       </c>
       <c r="H6" t="n">
-        <v>-242</v>
+        <v>-73</v>
       </c>
       <c r="I6" t="n">
-        <v>-100</v>
+        <v>-30.16528925619835</v>
       </c>
       <c r="J6" t="n">
-        <v>-286</v>
+        <v>-117</v>
       </c>
       <c r="K6" t="n">
-        <v>-100</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L6" t="n">
-        <v>-357</v>
+        <v>-188</v>
       </c>
       <c r="M6" t="n">
-        <v>-100</v>
+        <v>-52.66106442577031</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="B9" t="n">
         <v>204</v>
@@ -965,28 +965,28 @@
         <v>405</v>
       </c>
       <c r="F9" t="n">
-        <v>-204</v>
+        <v>-30</v>
       </c>
       <c r="G9" t="n">
-        <v>-100</v>
+        <v>-14.70588235294118</v>
       </c>
       <c r="H9" t="n">
-        <v>-249</v>
+        <v>-75</v>
       </c>
       <c r="I9" t="n">
-        <v>-100</v>
+        <v>-30.12048192771084</v>
       </c>
       <c r="J9" t="n">
-        <v>-309</v>
+        <v>-135</v>
       </c>
       <c r="K9" t="n">
-        <v>-100</v>
+        <v>-43.68932038834951</v>
       </c>
       <c r="L9" t="n">
-        <v>-405</v>
+        <v>-231</v>
       </c>
       <c r="M9" t="n">
-        <v>-100</v>
+        <v>-57.03703703703704</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="B10" t="n">
         <v>201</v>
@@ -1027,28 +1027,28 @@
         <v>369</v>
       </c>
       <c r="F10" t="n">
-        <v>-201</v>
+        <v>-31</v>
       </c>
       <c r="G10" t="n">
-        <v>-100</v>
+        <v>-15.4228855721393</v>
       </c>
       <c r="H10" t="n">
-        <v>-243</v>
+        <v>-73</v>
       </c>
       <c r="I10" t="n">
-        <v>-100</v>
+        <v>-30.04115226337449</v>
       </c>
       <c r="J10" t="n">
-        <v>-292</v>
+        <v>-122</v>
       </c>
       <c r="K10" t="n">
-        <v>-100</v>
+        <v>-41.78082191780822</v>
       </c>
       <c r="L10" t="n">
-        <v>-369</v>
+        <v>-199</v>
       </c>
       <c r="M10" t="n">
-        <v>-100</v>
+        <v>-53.92953929539296</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="B11" t="n">
         <v>204</v>
@@ -1089,28 +1089,28 @@
         <v>407</v>
       </c>
       <c r="F11" t="n">
-        <v>-128</v>
+        <v>-30</v>
       </c>
       <c r="G11" t="n">
-        <v>-62.74509803921568</v>
+        <v>-14.70588235294118</v>
       </c>
       <c r="H11" t="n">
-        <v>-173</v>
+        <v>-75</v>
       </c>
       <c r="I11" t="n">
-        <v>-69.47791164658635</v>
+        <v>-30.12048192771084</v>
       </c>
       <c r="J11" t="n">
+        <v>-135</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-43.68932038834951</v>
+      </c>
+      <c r="L11" t="n">
         <v>-233</v>
       </c>
-      <c r="K11" t="n">
-        <v>-75.40453074433657</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-331</v>
-      </c>
       <c r="M11" t="n">
-        <v>-81.32678132678133</v>
+        <v>-57.24815724815725</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1045</v>
+        <v>530</v>
       </c>
       <c r="B12" t="n">
         <v>201</v>
@@ -1151,28 +1151,28 @@
         <v>408</v>
       </c>
       <c r="F12" t="n">
-        <v>844</v>
+        <v>329</v>
       </c>
       <c r="G12" t="n">
-        <v>419.9004975124378</v>
+        <v>163.681592039801</v>
       </c>
       <c r="H12" t="n">
-        <v>799</v>
+        <v>284</v>
       </c>
       <c r="I12" t="n">
-        <v>324.7967479674797</v>
+        <v>115.4471544715447</v>
       </c>
       <c r="J12" t="n">
-        <v>738</v>
+        <v>223</v>
       </c>
       <c r="K12" t="n">
-        <v>240.3908794788274</v>
+        <v>72.63843648208469</v>
       </c>
       <c r="L12" t="n">
-        <v>637</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
-        <v>156.1274509803922</v>
+        <v>29.90196078431373</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>673</v>
+        <v>568</v>
       </c>
       <c r="B13" t="n">
         <v>208</v>
@@ -1213,28 +1213,28 @@
         <v>437</v>
       </c>
       <c r="F13" t="n">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="G13" t="n">
-        <v>223.5576923076923</v>
+        <v>173.0769230769231</v>
       </c>
       <c r="H13" t="n">
-        <v>418</v>
+        <v>313</v>
       </c>
       <c r="I13" t="n">
-        <v>163.921568627451</v>
+        <v>122.7450980392157</v>
       </c>
       <c r="J13" t="n">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="K13" t="n">
-        <v>108.359133126935</v>
+        <v>75.85139318885449</v>
       </c>
       <c r="L13" t="n">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>54.0045766590389</v>
+        <v>29.97711670480549</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="B14" t="n">
         <v>209</v>
@@ -1275,28 +1275,28 @@
         <v>435</v>
       </c>
       <c r="F14" t="n">
-        <v>-209</v>
+        <v>-31</v>
       </c>
       <c r="G14" t="n">
-        <v>-100</v>
+        <v>-14.83253588516746</v>
       </c>
       <c r="H14" t="n">
-        <v>-255</v>
+        <v>-77</v>
       </c>
       <c r="I14" t="n">
-        <v>-100</v>
+        <v>-30.19607843137255</v>
       </c>
       <c r="J14" t="n">
-        <v>-323</v>
+        <v>-145</v>
       </c>
       <c r="K14" t="n">
-        <v>-100</v>
+        <v>-44.89164086687307</v>
       </c>
       <c r="L14" t="n">
-        <v>-435</v>
+        <v>-257</v>
       </c>
       <c r="M14" t="n">
-        <v>-100</v>
+        <v>-59.08045977011495</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="B15" t="n">
         <v>201</v>
@@ -1337,28 +1337,28 @@
         <v>430</v>
       </c>
       <c r="F15" t="n">
-        <v>-201</v>
+        <v>-29</v>
       </c>
       <c r="G15" t="n">
-        <v>-100</v>
+        <v>-14.42786069651741</v>
       </c>
       <c r="H15" t="n">
-        <v>-245</v>
+        <v>-73</v>
       </c>
       <c r="I15" t="n">
-        <v>-100</v>
+        <v>-29.79591836734694</v>
       </c>
       <c r="J15" t="n">
-        <v>-315</v>
+        <v>-143</v>
       </c>
       <c r="K15" t="n">
-        <v>-100</v>
+        <v>-45.3968253968254</v>
       </c>
       <c r="L15" t="n">
-        <v>-430</v>
+        <v>-258</v>
       </c>
       <c r="M15" t="n">
-        <v>-100</v>
+        <v>-60</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>968</v>
+        <v>566</v>
       </c>
       <c r="B16" t="n">
         <v>202</v>
@@ -1399,28 +1399,28 @@
         <v>435</v>
       </c>
       <c r="F16" t="n">
-        <v>766</v>
+        <v>364</v>
       </c>
       <c r="G16" t="n">
-        <v>379.2079207920792</v>
+        <v>180.1980198019802</v>
       </c>
       <c r="H16" t="n">
-        <v>722</v>
+        <v>320</v>
       </c>
       <c r="I16" t="n">
-        <v>293.4959349593496</v>
+        <v>130.0813008130081</v>
       </c>
       <c r="J16" t="n">
-        <v>651</v>
+        <v>249</v>
       </c>
       <c r="K16" t="n">
-        <v>205.3627760252366</v>
+        <v>78.54889589905363</v>
       </c>
       <c r="L16" t="n">
-        <v>533</v>
+        <v>131</v>
       </c>
       <c r="M16" t="n">
-        <v>122.5287356321839</v>
+        <v>30.11494252873563</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2991</v>
+        <v>562</v>
       </c>
       <c r="B17" t="n">
         <v>205</v>
@@ -1461,28 +1461,28 @@
         <v>432</v>
       </c>
       <c r="F17" t="n">
-        <v>2786</v>
+        <v>357</v>
       </c>
       <c r="G17" t="n">
-        <v>1359.024390243902</v>
+        <v>174.1463414634146</v>
       </c>
       <c r="H17" t="n">
-        <v>2741</v>
+        <v>312</v>
       </c>
       <c r="I17" t="n">
-        <v>1096.4</v>
+        <v>124.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2672</v>
+        <v>243</v>
       </c>
       <c r="K17" t="n">
-        <v>837.6175548589341</v>
+        <v>76.17554858934169</v>
       </c>
       <c r="L17" t="n">
-        <v>2559</v>
+        <v>130</v>
       </c>
       <c r="M17" t="n">
-        <v>592.3611111111111</v>
+        <v>30.09259259259259</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6992</t>
+          <t>4772</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>1852</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>738</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>568</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2024-12-22</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>117</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>368</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>347</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>383</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>437</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>135</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>360</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>333</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>377</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>445</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>66</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>370</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>341</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>388</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>460</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>63</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>345</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>316</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>362</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>434</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>66</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>370</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>338</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>389</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>467</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>65</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>359</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>327</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>378</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>456</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>67</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>376</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>335</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>397</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>495</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>68</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>391</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>345</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>413</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>521</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>64</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>355</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>322</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>374</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>456</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>67</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>383</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>335</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>405</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>516</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>69</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>395</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>340</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>418</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>543</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>68</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>388</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>332</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>410</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>536</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>67</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>378</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>327</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>400</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>517</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>65</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>363</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>309</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>384</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>506</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>65</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>366</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>304</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>388</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>525</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>65</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>364</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>310</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>385</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>508</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="E2" t="n">
         <v>368</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>135</v>
+        <v>356</v>
       </c>
       <c r="E3" t="n">
         <v>360</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66</v>
+        <v>366</v>
       </c>
       <c r="E4" t="n">
         <v>370</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="E5" t="n">
         <v>345</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="E6" t="n">
         <v>370</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>354</v>
       </c>
       <c r="E7" t="n">
         <v>359</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="E8" t="n">
         <v>376</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>384</v>
       </c>
       <c r="E9" t="n">
         <v>391</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>350</v>
       </c>
       <c r="E10" t="n">
         <v>355</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>376</v>
       </c>
       <c r="E11" t="n">
         <v>383</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>69</v>
+        <v>386</v>
       </c>
       <c r="E12" t="n">
         <v>395</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>379</v>
       </c>
       <c r="E13" t="n">
         <v>388</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>370</v>
       </c>
       <c r="E14" t="n">
         <v>378</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>354</v>
       </c>
       <c r="E15" t="n">
         <v>363</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="E16" t="n">
         <v>366</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>355</v>
       </c>
       <c r="E17" t="n">
         <v>364</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1178</t>
+          <t>5758</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>2901</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>1428</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>386</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>287</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="E2" t="n">
         <v>368</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>356</v>
+        <v>181</v>
       </c>
       <c r="E3" t="n">
         <v>360</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="E4" t="n">
         <v>370</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>341</v>
+        <v>178</v>
       </c>
       <c r="E5" t="n">
         <v>345</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="E6" t="n">
         <v>370</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="E7" t="n">
         <v>359</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>370</v>
+        <v>169</v>
       </c>
       <c r="E8" t="n">
         <v>376</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>384</v>
+        <v>186</v>
       </c>
       <c r="E9" t="n">
         <v>391</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="E10" t="n">
         <v>355</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>376</v>
+        <v>201</v>
       </c>
       <c r="E11" t="n">
         <v>383</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>386</v>
+        <v>187</v>
       </c>
       <c r="E12" t="n">
         <v>395</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>379</v>
+        <v>185</v>
       </c>
       <c r="E13" t="n">
         <v>388</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="E14" t="n">
         <v>378</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="E15" t="n">
         <v>363</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>287</v>
+        <v>181</v>
       </c>
       <c r="E16" t="n">
         <v>366</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>355</v>
+        <v>181</v>
       </c>
       <c r="E17" t="n">
         <v>364</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2024-12-29</t>
+          <t>2024-09-08 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>265</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1257 units</t>
+          <t>1522 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5758</t>
+          <t>2904</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>1436</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>718</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>169</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E2" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F2" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G2" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H2" t="n">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E3" t="n">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F3" t="n">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="G3" t="n">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="H3" t="n">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E4" t="n">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F4" t="n">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="G4" t="n">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="H4" t="n">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" t="n">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="F5" t="n">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="G5" t="n">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="H5" t="n">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="E6" t="n">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="F6" t="n">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="G6" t="n">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="H6" t="n">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E7" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F7" t="n">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G7" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H7" t="n">
         <v>456</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="E8" t="n">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="G8" t="n">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="H8" t="n">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" t="n">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="F9" t="n">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="G9" t="n">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="H9" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="E10" t="n">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="F10" t="n">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="G10" t="n">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="H10" t="n">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E11" t="n">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F11" t="n">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="G11" t="n">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="H11" t="n">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E12" t="n">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="F12" t="n">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="G12" t="n">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="H12" t="n">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E13" t="n">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F13" t="n">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="G13" t="n">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="H13" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E14" t="n">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="F14" t="n">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="G14" t="n">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="H14" t="n">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E15" t="n">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="F15" t="n">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="G15" t="n">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="H15" t="n">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="E16" t="n">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="F16" t="n">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="G16" t="n">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="H16" t="n">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E17" t="n">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F17" t="n">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="G17" t="n">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="H17" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-05</t>
+          <t>2024-09-08 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>269</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>88</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1522 units</t>
+          <t>1791 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>3153</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>1556</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>773</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>216</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>176</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E2" t="n">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="F2" t="n">
         <v>348</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E3" t="n">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="F3" t="n">
         <v>353</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E4" t="n">
-        <v>392</v>
+        <v>315</v>
       </c>
       <c r="F4" t="n">
         <v>366</v>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E5" t="n">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="F5" t="n">
         <v>342</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="E6" t="n">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="F6" t="n">
         <v>362</v>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E7" t="n">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="F7" t="n">
         <v>337</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="F8" t="n">
         <v>366</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E9" t="n">
-        <v>409</v>
+        <v>311</v>
       </c>
       <c r="F9" t="n">
         <v>371</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E10" t="n">
-        <v>392</v>
+        <v>305</v>
       </c>
       <c r="F10" t="n">
         <v>360</v>
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E11" t="n">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="F11" t="n">
         <v>361</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E12" t="n">
-        <v>424</v>
+        <v>312</v>
       </c>
       <c r="F12" t="n">
         <v>377</v>
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E13" t="n">
-        <v>404</v>
+        <v>296</v>
       </c>
       <c r="F13" t="n">
         <v>358</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="E14" t="n">
-        <v>404</v>
+        <v>300</v>
       </c>
       <c r="F14" t="n">
         <v>361</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="E15" t="n">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="F15" t="n">
         <v>328</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="E16" t="n">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="F16" t="n">
         <v>333</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E17" t="n">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="F17" t="n">
         <v>329</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3153</t>
+          <t>2772</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1357</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>679</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>183</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>166</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E2" t="n">
         <v>308</v>
@@ -510,8 +510,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E3" t="n">
         <v>305</v>
@@ -550,8 +550,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E4" t="n">
         <v>315</v>
@@ -590,8 +590,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E5" t="n">
         <v>292</v>
@@ -630,8 +630,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E6" t="n">
         <v>309</v>
@@ -670,8 +670,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="E7" t="n">
         <v>286</v>
@@ -710,8 +710,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="E8" t="n">
         <v>309</v>
@@ -750,8 +750,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="E9" t="n">
         <v>311</v>
@@ -790,8 +790,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E10" t="n">
         <v>305</v>
@@ -830,8 +830,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -870,8 +870,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E12" t="n">
         <v>312</v>
@@ -910,8 +910,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="E13" t="n">
         <v>296</v>
@@ -950,8 +950,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -990,8 +990,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="E15" t="n">
         <v>270</v>
@@ -1030,8 +1030,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="E16" t="n">
         <v>273</v>
@@ -1070,8 +1070,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="E17" t="n">
         <v>271</v>
@@ -1110,8 +1110,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>3084</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1465</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>712</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>210</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>173</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="E2" t="n">
         <v>308</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="E3" t="n">
         <v>305</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="E4" t="n">
         <v>315</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="E5" t="n">
         <v>292</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="E6" t="n">
         <v>309</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="E7" t="n">
         <v>286</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="E8" t="n">
         <v>309</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="E9" t="n">
         <v>311</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="E10" t="n">
         <v>305</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="E12" t="n">
         <v>312</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="E13" t="n">
         <v>296</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>207</v>
+        <v>325</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>204</v>
+        <v>336</v>
       </c>
       <c r="E15" t="n">
         <v>270</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="E16" t="n">
         <v>273</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>210</v>
+        <v>352</v>
       </c>
       <c r="E17" t="n">
         <v>271</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-12</t>
+          <t>2024-09-08 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>340</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1791 units</t>
+          <t>2131 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>4593</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1988</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>908</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>355</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="E2" t="n">
         <v>308</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E3" t="n">
         <v>305</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="E4" t="n">
         <v>315</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
         <v>292</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="E6" t="n">
         <v>309</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>272</v>
+        <v>198</v>
       </c>
       <c r="E7" t="n">
         <v>286</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="E8" t="n">
         <v>309</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="E9" t="n">
         <v>311</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="E10" t="n">
         <v>305</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="E12" t="n">
         <v>312</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="E13" t="n">
         <v>296</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>336</v>
+        <v>211</v>
       </c>
       <c r="E15" t="n">
         <v>270</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>355</v>
+        <v>215</v>
       </c>
       <c r="E16" t="n">
         <v>273</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>352</v>
+        <v>214</v>
       </c>
       <c r="E17" t="n">
         <v>271</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>269</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2131 units</t>
+          <t>2024 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>3223</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1550</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>758</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>215</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>189</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="E2" t="n">
         <v>308</v>
@@ -510,8 +510,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="E3" t="n">
         <v>305</v>
@@ -550,8 +550,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="J3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="E4" t="n">
         <v>315</v>
@@ -590,8 +590,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" t="n">
         <v>292</v>
@@ -630,8 +630,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6" t="n">
         <v>309</v>
@@ -670,8 +670,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="E7" t="n">
         <v>286</v>
@@ -710,8 +710,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="J7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="E8" t="n">
         <v>309</v>
@@ -750,8 +750,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="J8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="E9" t="n">
         <v>311</v>
@@ -790,8 +790,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="J9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="E10" t="n">
         <v>305</v>
@@ -830,8 +830,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -870,8 +870,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E12" t="n">
         <v>312</v>
@@ -910,8 +910,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E13" t="n">
         <v>296</v>
@@ -950,8 +950,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -990,8 +990,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E15" t="n">
         <v>270</v>
@@ -1030,8 +1030,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="J15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1070,8 +1070,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="J16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,8 +1110,8 @@
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="J17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3223</t>
+          <t>3468</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1711</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>857</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>226</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>190</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,27 +491,27 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E2" t="n">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="F2" t="n">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="G2" t="n">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="H2" t="n">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,24 +534,24 @@
         <v>223</v>
       </c>
       <c r="E3" t="n">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="F3" t="n">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="G3" t="n">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="H3" t="n">
-        <v>457</v>
+        <v>409</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,27 +571,27 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="E4" t="n">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="F4" t="n">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="G4" t="n">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="H4" t="n">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,27 +611,27 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="E5" t="n">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="F5" t="n">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="G5" t="n">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="H5" t="n">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,27 +651,27 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="E6" t="n">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="F6" t="n">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="G6" t="n">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="H6" t="n">
-        <v>484</v>
+        <v>438</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,27 +691,27 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="E7" t="n">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="F7" t="n">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="G7" t="n">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="H7" t="n">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,27 +731,27 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="E8" t="n">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="F8" t="n">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="G8" t="n">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="H8" t="n">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,27 +771,27 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="E9" t="n">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="F9" t="n">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="G9" t="n">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="H9" t="n">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="E10" t="n">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="F10" t="n">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="G10" t="n">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="H10" t="n">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,27 +851,27 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="E11" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="F11" t="n">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="G11" t="n">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="H11" t="n">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,27 +891,27 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="E12" t="n">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="F12" t="n">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="G12" t="n">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="H12" t="n">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,27 +931,27 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>221</v>
+        <v>325</v>
       </c>
       <c r="E13" t="n">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F13" t="n">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="G13" t="n">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="H13" t="n">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,27 +971,27 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="E14" t="n">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="F14" t="n">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="G14" t="n">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="H14" t="n">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,27 +1011,27 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="E15" t="n">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="F15" t="n">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="G15" t="n">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="H15" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,27 +1051,27 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="E16" t="n">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F16" t="n">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="G16" t="n">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="H16" t="n">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,27 +1091,27 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>214</v>
+        <v>320</v>
       </c>
       <c r="E17" t="n">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="F17" t="n">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="G17" t="n">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="H17" t="n">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-19</t>
+          <t>2024-09-08 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024 units</t>
+          <t>2239 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3468</t>
+          <t>4619</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>2044</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>939</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>335</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>223</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVGRVLQ.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" t="n">
         <v>274</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E4" t="n">
         <v>279</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E6" t="n">
         <v>278</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E8" t="n">
         <v>283</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E9" t="n">
         <v>286</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E10" t="n">
         <v>272</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E13" t="n">
         <v>273</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>4623</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2044</t>
+          <t>2051</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>943</t>
         </is>
       </c>
     </row>
